--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serhan.aydin\Documents\research_now\python_opt\supply-chain-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serhan.aydin\Documents\github\nsydn\kis_okulu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056CACA0-F07F-45D3-9BFA-226D4823653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5B268F-5CCE-4E9E-83B9-309865CA8E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed_costs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>ABD</t>
   </si>
@@ -144,6 +144,33 @@
   </si>
   <si>
     <t>Talep (Adet/ay)</t>
+  </si>
+  <si>
+    <t>BAZ SENARYO</t>
+  </si>
+  <si>
+    <t>SENARYO A</t>
+  </si>
+  <si>
+    <t>SENARYO B</t>
+  </si>
+  <si>
+    <t>Japonya talebi Hindistan'dan karşılanır.</t>
+  </si>
+  <si>
+    <t>Japonya (yuksek kapasite) fabrikası kapanır.</t>
+  </si>
+  <si>
+    <t>Brezilya (yuksek kapasite) fabrikası kapanır.</t>
+  </si>
+  <si>
+    <t>ABD (yuksek kapasite) fabrikası kurulur.</t>
+  </si>
+  <si>
+    <t>Hindistan (dusuk kapasite) fabrikası kapanır.</t>
+  </si>
+  <si>
+    <t>Japonya (yuksek kapasite) fabrikası kurulur.</t>
   </si>
 </sst>
 </file>
@@ -154,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +210,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -250,6 +297,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{2EB9AFFC-99D4-40CE-8B16-EB315D6271F9}"/>
@@ -641,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958188D-51D9-4CC5-8BCC-68B4DA87C61A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -939,7 +991,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,188 +1140,235 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72494866-F80D-49F6-9197-F85F4B67EDDD}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="K5" t="s">
+      <c r="B6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="K6" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="L6" s="9"/>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="K9" t="s">
+      <c r="K9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="K10" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="K16" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="K17" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K20" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serhan.aydin\Documents\github\nsydn\kis_okulu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serhan.aydin\Documents\GitHub\isu_kis_okulu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5B268F-5CCE-4E9E-83B9-309865CA8E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF5B286-4111-4B4F-93AE-A5FB346DEA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fixed_costs" sheetId="1" r:id="rId1"/>
-    <sheet name="manvar_costs" sheetId="2" r:id="rId2"/>
+    <sheet name="manuf_costs" sheetId="2" r:id="rId2"/>
     <sheet name="freight_costs" sheetId="3" r:id="rId3"/>
     <sheet name="capacities" sheetId="4" r:id="rId4"/>
     <sheet name="demands" sheetId="5" r:id="rId5"/>
@@ -36,31 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
-  <si>
-    <t>ABD</t>
-  </si>
-  <si>
-    <t>Almanya</t>
-  </si>
-  <si>
-    <t>Japonya</t>
-  </si>
-  <si>
-    <t>Brezilya</t>
-  </si>
-  <si>
-    <t>Hindistan</t>
-  </si>
-  <si>
-    <t>Dusuk</t>
-  </si>
-  <si>
-    <t>Yuksek</t>
-  </si>
-  <si>
-    <t>Talep</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Uretim yapacak fabrikalar ve tipleri</t>
   </si>
@@ -131,21 +107,6 @@
     <t>Toplam maliyet = 85,785,000 ($/Month)</t>
   </si>
   <si>
-    <t>Kapasite (Adet/ay)</t>
-  </si>
-  <si>
-    <t>Değişken mal. ($/adet)</t>
-  </si>
-  <si>
-    <t>Taşıma mal. ($/konteynır)</t>
-  </si>
-  <si>
-    <t>Sabit mal. ($/ay)</t>
-  </si>
-  <si>
-    <t>Talep (Adet/ay)</t>
-  </si>
-  <si>
     <t>BAZ SENARYO</t>
   </si>
   <si>
@@ -171,29 +132,52 @@
   </si>
   <si>
     <t>Japonya (yuksek kapasite) fabrikası kurulur.</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -225,18 +209,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -251,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -259,49 +237,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{2EB9AFFC-99D4-40CE-8B16-EB315D6271F9}"/>
@@ -607,79 +558,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>6500000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>9500000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7">
         <v>4980000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>7270000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7">
         <v>6230000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>9100000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7">
         <v>3230000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>4730000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
         <v>2110000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <f>(3080)*1000</f>
         <v>3080000</v>
       </c>
@@ -691,134 +642,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958188D-51D9-4CC5-8BCC-68B4DA87C61A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7">
         <v>12</v>
       </c>
-      <c r="C2" s="2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
         <v>5</v>
       </c>
     </row>
@@ -831,152 +711,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ADE6FE-F64B-4787-A63D-0EB55147D7E3}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="6" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <f>1750</f>
         <v>1750</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <f>1100</f>
         <v>1100</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <f>2300</f>
         <v>2300</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="7">
         <f>1254</f>
         <v>1254</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7">
         <f>1905</f>
         <v>1905</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <f>1231</f>
         <v>1231</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <f>2892</f>
         <v>2892</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="7">
         <f>1439</f>
         <v>1439</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7">
         <f>2200</f>
         <v>2200</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <f>3250</f>
         <v>3250</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <f>6230</f>
         <v>6230</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="7">
         <f>2050</f>
         <v>2050</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7">
         <f>2350</f>
         <v>2350</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <f>3150</f>
         <v>3150</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <f>4000</f>
         <v>4000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="7">
         <f>4250</f>
         <v>4250</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
         <f>1950</f>
         <v>1950</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <f>2200</f>
         <v>2200</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="7">
         <f>3500</f>
         <v>3500</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <f>4200</f>
         <v>4200</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="7">
         <v>0</v>
       </c>
     </row>
@@ -990,78 +871,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA998862-89F3-4BE7-86D6-347F22B3D207}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7">
         <v>500000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="7">
         <v>1500000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7">
         <v>500000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>1500000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7">
         <v>500000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1500000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7">
         <v>500000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>1500000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7">
         <v>500000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <f>(1500)*1000</f>
         <v>1500000</v>
       </c>
@@ -1075,59 +957,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448C3B34-58D2-4D49-8D4E-DEBA038BF1E2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="7">
         <v>2800000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="7">
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="7">
         <v>1700000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="7">
         <v>145000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="7">
         <v>160000</v>
@@ -1142,233 +1024,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72494866-F80D-49F6-9197-F85F4B67EDDD}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>13</v>
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="K9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="K9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="K10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="K17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>22</v>
-      </c>
-      <c r="K20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K26" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serhan.aydin\Documents\GitHub\isu_kis_okulu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF5B286-4111-4B4F-93AE-A5FB346DEA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1566B6A3-02F4-49E0-AC4A-62E435865824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
   <si>
     <t>Uretim yapacak fabrikalar ve tipleri</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>location</t>
-  </si>
-  <si>
-    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -642,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4958188D-51D9-4CC5-8BCC-68B4DA87C61A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,51 +651,123 @@
     <col min="2" max="2" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="7">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="7">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
         <v>5</v>
       </c>
     </row>
@@ -712,7 +781,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,7 +941,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,7 +1027,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
